--- a/flow/stock_type.xlsx
+++ b/flow/stock_type.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE124"/>
+  <dimension ref="A1:AE125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12419,98 +12419,195 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>20230209</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="C124" t="n">
+        <v>36.95</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I124" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="K124" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O124" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="P124" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="W124" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>Difference</t>
         </is>
       </c>
-      <c r="B124" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="C124" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="D124" t="n">
+      <c r="B125" t="n">
+        <v>-3.349999999999994</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-5.659999999999997</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.330000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-0.4300000000000002</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-0.6299999999999999</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-0.1699999999999999</v>
+      </c>
+      <c r="L125" t="n">
+        <v>-0.3899999999999999</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-0.08999999999999997</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.4400000000000004</v>
+      </c>
+      <c r="O125" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="P125" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.8499999999999996</v>
+      </c>
+      <c r="R125" t="n">
+        <v>-0.3400000000000001</v>
+      </c>
+      <c r="S125" t="n">
+        <v>-0.04999999999999999</v>
+      </c>
+      <c r="T125" t="n">
         <v>-0.27</v>
       </c>
-      <c r="E124" t="n">
-        <v>-0.7600000000000007</v>
-      </c>
-      <c r="F124" t="n">
-        <v>-7.660000000000001</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-0.7599999999999998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.5700000000000003</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0.1099999999999999</v>
-      </c>
-      <c r="M124" t="n">
+      <c r="U125" t="n">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="V125" t="n">
         <v>-0.16</v>
       </c>
-      <c r="N124" t="n">
-        <v>-0.6100000000000003</v>
-      </c>
-      <c r="O124" t="n">
-        <v>0.6599999999999997</v>
-      </c>
-      <c r="P124" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>-6.96</v>
-      </c>
-      <c r="R124" t="n">
-        <v>0.09000000000000008</v>
-      </c>
-      <c r="S124" t="n">
-        <v>-0.01000000000000001</v>
-      </c>
-      <c r="T124" t="n">
-        <v>-0.04999999999999993</v>
-      </c>
-      <c r="U124" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="V124" t="n">
-        <v>-0.3200000000000001</v>
-      </c>
-      <c r="W124" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="X124" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="Y124" t="n">
+      <c r="W125" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="X125" t="n">
         <v>-0.06</v>
       </c>
-      <c r="Z124" t="n">
-        <v>-0.5100000000000001</v>
-      </c>
-      <c r="AA124" t="n">
-        <v>-0.03999999999999998</v>
-      </c>
-      <c r="AB124" t="n">
+      <c r="Y125" t="n">
         <v>-0.03</v>
       </c>
-      <c r="AC124" t="n">
-        <v>-0.04000000000000001</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AE124" t="n">
+      <c r="Z125" t="n">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="AA125" t="n">
         <v>-0.03</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>0.04000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/flow/stock_type.xlsx
+++ b/flow/stock_type.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE125"/>
+  <dimension ref="A1:AE130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12516,98 +12516,583 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>20230420</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="C125" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I125" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="J125" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K125" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O125" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="P125" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="R125" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="U125" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="X125" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20230421</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>60.66</v>
+      </c>
+      <c r="C126" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I126" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J126" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K126" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O126" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="P126" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="R126" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S126" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="X126" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20230424</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>56.06</v>
+      </c>
+      <c r="C127" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I127" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="O127" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="P127" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>20230425</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="C128" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="E128" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O128" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="P128" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20230426</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>60.37</v>
+      </c>
+      <c r="C129" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="E129" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I129" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K129" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N129" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O129" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="P129" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="V129" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
           <t>Difference</t>
         </is>
       </c>
-      <c r="B125" t="n">
-        <v>-3.349999999999994</v>
-      </c>
-      <c r="C125" t="n">
-        <v>-5.659999999999997</v>
-      </c>
-      <c r="D125" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="E125" t="n">
-        <v>2.330000000000001</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.4199999999999999</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="H125" t="n">
-        <v>-0.4300000000000002</v>
-      </c>
-      <c r="I125" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="J125" t="n">
-        <v>-0.6299999999999999</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="L125" t="n">
-        <v>-0.3899999999999999</v>
-      </c>
-      <c r="M125" t="n">
-        <v>-0.08999999999999997</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.4400000000000004</v>
-      </c>
-      <c r="O125" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="P125" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>0.8499999999999996</v>
-      </c>
-      <c r="R125" t="n">
-        <v>-0.3400000000000001</v>
-      </c>
-      <c r="S125" t="n">
-        <v>-0.04999999999999999</v>
-      </c>
-      <c r="T125" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="U125" t="n">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="V125" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="W125" t="n">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="X125" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="Y125" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="Z125" t="n">
-        <v>0.7500000000000001</v>
-      </c>
-      <c r="AA125" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="AB125" t="n">
+      <c r="B130" t="n">
+        <v>1.549999999999997</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.6699999999999999</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.1299999999999999</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.6300000000000003</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.5200000000000005</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-0.1400000000000001</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="L130" t="n">
+        <v>-0.3100000000000001</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-0.1499999999999999</v>
+      </c>
+      <c r="N130" t="n">
+        <v>-0.04999999999999982</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="P130" t="n">
+        <v>-0.3499999999999996</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>-0.8599999999999999</v>
+      </c>
+      <c r="R130" t="n">
+        <v>-0.3300000000000001</v>
+      </c>
+      <c r="S130" t="n">
+        <v>-0.06000000000000005</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0.02999999999999992</v>
+      </c>
+      <c r="U130" t="n">
         <v>0</v>
       </c>
-      <c r="AC125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>0.04000000000000001</v>
+      <c r="V130" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="X130" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>-0.06000000000000005</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>-0.3699999999999999</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>-0.01999999999999999</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>0.3800000000000001</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>-0.04000000000000001</v>
       </c>
     </row>
   </sheetData>
